--- a/biology/Histoire de la zoologie et de la botanique/Expédition_scientifique_autrichienne_au_Brésil/Expédition_scientifique_autrichienne_au_Brésil.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Expédition_scientifique_autrichienne_au_Brésil/Expédition_scientifique_autrichienne_au_Brésil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exp%C3%A9dition_scientifique_autrichienne_au_Br%C3%A9sil</t>
+          <t>Expédition_scientifique_autrichienne_au_Brésil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’expédition scientifique autrichienne au Brésil (Österreichische Brasilien-Expedition) fut un grand voyage d'exploration scientifique qui parcourut le Brésil, avec une prédominance dans les domaines de la botanique, de la zoologie et de l'ethnographie. Elle a été organisée et financée par l'empire autrichien et s'est déroulée de 1817 à 1835.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exp%C3%A9dition_scientifique_autrichienne_au_Br%C3%A9sil</t>
+          <t>Expédition_scientifique_autrichienne_au_Brésil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expédition a eu pour principal défenseur le prince Metternich et a été associée au mariage politiquement significatif de Pierre Ier du Brésil, et l'archiduchesse Marie Léopoldine d'Autriche. Le chancelier Metternich profite de cette occasion pour entamer un aperçu complet de la flore, de la faune, de la culture, de la population et des autres ressources du Brésil. Il entreprend la planification et l'équipement de l'expédition et décide de son itinéraire. La planification scientifique est entreprise par Carl Franz Anton Ritter von Schreibers.
 Le contingent de quatorze naturalistes inclut Johann Christian Mikan, Carl Friedrich Philipp von Martius, Giuseppe Raddi, Heinrich Wilhelm Schott, Johann Baptist von Spix, Johann Baptist Emanuel Pohl, Johann Natterer, Ferdinand Dominik Sochor (chasseur impérial et empailleur habile) et les artistes naturalistes Thomas Ender (pour les paysages) et Johann Buchberger (pour la partie botanique).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Exp%C3%A9dition_scientifique_autrichienne_au_Br%C3%A9sil</t>
+          <t>Expédition_scientifique_autrichienne_au_Brésil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fontaine de Moura
